--- a/Accuracy/Week_09_Accuracy.xlsx
+++ b/Accuracy/Week_09_Accuracy.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.nsa.gov\udroot$\gh1\navol3061\tabelfi\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\project-dark-erebus\Accuracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8058"/>
   </bookViews>
   <sheets>
     <sheet name="final_predictions_week9" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="64">
   <si>
     <t>Away Team</t>
   </si>
@@ -54,12 +54,6 @@
     <t>XGB Prob</t>
   </si>
   <si>
-    <t>SVM RBF Pred</t>
-  </si>
-  <si>
-    <t>SVM RBF Prob</t>
-  </si>
-  <si>
     <t>KNN Pred</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>XGB Acc</t>
   </si>
   <si>
-    <t>SVM RBF Acc</t>
-  </si>
-  <si>
     <t>KNN Acc</t>
   </si>
   <si>
@@ -211,12 +202,21 @@
   </si>
   <si>
     <t>6-7</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>8-3-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1019,35 +1019,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.15625" customWidth="1"/>
+    <col min="8" max="9" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.578125" customWidth="1"/>
+    <col min="11" max="12" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.68359375" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.41796875" customWidth="1"/>
+    <col min="20" max="21" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.578125" customWidth="1"/>
+    <col min="23" max="23" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -1082,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
@@ -1091,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q1" t="s">
         <v>11</v>
@@ -1100,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="S1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T1" t="s">
         <v>13</v>
@@ -1109,1151 +1109,1019 @@
         <v>14</v>
       </c>
       <c r="V1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" t="s">
         <v>51</v>
       </c>
-      <c r="W1" t="s">
-        <v>15</v>
-      </c>
       <c r="X1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>80.740340142782301</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>58.603080115609004</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2">
         <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O2">
         <v>99.360552780279093</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R2">
-        <v>59.596673944303603</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2">
-        <v>100</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="X2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>99.950912807541201</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>54.926219740034199</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3">
         <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3">
         <v>84.544007679199495</v>
       </c>
       <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3">
+        <v>80</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3">
-        <v>59.596673944303603</v>
-      </c>
-      <c r="S3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3">
-        <v>80</v>
-      </c>
-      <c r="V3" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3">
-        <v>100</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>53</v>
+      <c r="X3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>98.577942266816606</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>64.490859997195102</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L4">
         <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O4">
         <v>99.939620604275902</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R4">
-        <v>59.596673944303603</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U4">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4">
-        <v>100</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>99.9999965455481</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>57.6328561446009</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5">
         <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O5">
         <v>70.5940371414857</v>
       </c>
       <c r="P5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5">
+        <v>60</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5">
+        <v>100</v>
+      </c>
+      <c r="V5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5">
-        <v>59.596673944303603</v>
-      </c>
-      <c r="S5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5">
-        <v>60</v>
-      </c>
-      <c r="V5" t="s">
-        <v>53</v>
-      </c>
-      <c r="W5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5">
-        <v>100</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>53</v>
+      <c r="X5" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>92.794972035519706</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>59.919026169106701</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L6">
         <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6">
         <v>84.877280351604895</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R6">
-        <v>59.596673944303603</v>
+        <v>60</v>
       </c>
       <c r="S6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X6">
-        <v>100</v>
-      </c>
-      <c r="Y6" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>46</v>
+      <c r="X6" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>99.859913137739696</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7">
         <v>53.049350018754801</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <v>80</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O7">
         <v>98.471781932662594</v>
       </c>
       <c r="P7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7">
+        <v>60</v>
+      </c>
+      <c r="S7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7">
-        <v>59.596673944303603</v>
-      </c>
-      <c r="S7" t="s">
-        <v>53</v>
-      </c>
-      <c r="T7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7">
-        <v>60</v>
-      </c>
-      <c r="V7" t="s">
-        <v>53</v>
-      </c>
-      <c r="W7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7">
-        <v>100</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>53</v>
+      <c r="X7" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>60.516246290586999</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>60.3104465800401</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O8">
         <v>92.696918766097298</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R8">
-        <v>59.596673944303603</v>
+        <v>60</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" t="s">
         <v>53</v>
       </c>
-      <c r="W8" t="s">
-        <v>19</v>
-      </c>
-      <c r="X8">
-        <v>100</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>46</v>
+      <c r="X8" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>99.038236175089907</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <v>52.502455307331999</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9">
         <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O9">
         <v>99.782420936904998</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R9">
-        <v>59.596673944303603</v>
+        <v>60</v>
       </c>
       <c r="S9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9">
+        <v>100</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" t="s">
         <v>53</v>
       </c>
-      <c r="T9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9">
-        <v>60</v>
-      </c>
-      <c r="V9" t="s">
-        <v>53</v>
-      </c>
-      <c r="W9" t="s">
-        <v>20</v>
-      </c>
-      <c r="X9">
-        <v>100</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>53</v>
+      <c r="X9" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>98.4639880379343</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <v>58.738889614155298</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L10">
         <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O10">
         <v>98.430446390733096</v>
       </c>
       <c r="P10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10">
+        <v>80</v>
+      </c>
+      <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10">
+        <v>100</v>
+      </c>
+      <c r="V10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10">
-        <v>59.596673944303603</v>
-      </c>
-      <c r="S10" t="s">
-        <v>53</v>
-      </c>
-      <c r="T10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10">
-        <v>80</v>
-      </c>
-      <c r="V10" t="s">
-        <v>53</v>
-      </c>
-      <c r="W10" t="s">
-        <v>19</v>
-      </c>
-      <c r="X10">
-        <v>100</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>53</v>
+      <c r="X10" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>88.936785391243504</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>57.621672884415702</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L11">
         <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O11">
         <v>62.592418349310101</v>
       </c>
       <c r="P11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11">
+        <v>80</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11">
+        <v>100</v>
+      </c>
+      <c r="V11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11">
-        <v>59.596673944303603</v>
-      </c>
-      <c r="S11" t="s">
-        <v>53</v>
-      </c>
-      <c r="T11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11">
-        <v>80</v>
-      </c>
-      <c r="V11" t="s">
-        <v>53</v>
-      </c>
-      <c r="W11" t="s">
-        <v>19</v>
-      </c>
-      <c r="X11">
-        <v>100</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>53</v>
+      <c r="X11" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>64.006072911157702</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>63.364979904730802</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L12">
         <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O12">
         <v>96.864850256811195</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R12">
-        <v>59.596673944303603</v>
+        <v>60</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U12">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="V12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="W12" t="s">
-        <v>19</v>
-      </c>
-      <c r="X12">
-        <v>100</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="X12" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <v>59.9258398139307</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>63.071632144106303</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L13">
         <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O13">
         <v>93.884919789422</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R13">
-        <v>59.596673944303603</v>
+        <v>60</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U13">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="W13" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13">
-        <v>100</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="X13" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14">
         <v>92.632829268982405</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <v>64.479260450967104</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14">
         <v>70</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O14">
         <v>99.915760815812305</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R14">
-        <v>59.596673944303603</v>
+        <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U14">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="V14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W14" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14">
-        <v>100</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+      <c r="O16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="R16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
